--- a/medicine/Soins infirmiers et profession infirmière/Pression_artérielle_invasive/Pression_artérielle_invasive.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Pression_artérielle_invasive/Pression_artérielle_invasive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pression_art%C3%A9rielle_invasive</t>
+          <t>Pression_artérielle_invasive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pression artérielle invasive, également appelée pression artérielle sanglante, constitue stricto sensu la mesure de la pression artérielle réalisée par introduction d'un cathéter dans une artère, ce qui constitue un geste invasif.
 </t>
